--- a/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
+++ b/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A18D1F-1522-D447-AC3D-8C5E44326D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F9C9E-BF49-4C4C-B7A3-FC7A19CE94DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6202,7 +6202,7 @@
         <v>95.407449999999997</v>
       </c>
       <c r="M155" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6243,7 +6243,7 @@
         <v>95.691959999999995</v>
       </c>
       <c r="M156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6530,7 +6530,7 @@
         <v>95.020539999999997</v>
       </c>
       <c r="M163" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:13">

--- a/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
+++ b/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F9C9E-BF49-4C4C-B7A3-FC7A19CE94DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB58660-AD3A-0147-920A-87B3525DB076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
   <si>
     <t>Ebc</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:M643"/>
+  <dimension ref="A1:O643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +572,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -606,8 +612,14 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -638,8 +650,14 @@
       <c r="M2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -670,8 +688,14 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -702,8 +726,14 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -734,8 +764,14 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -766,8 +802,14 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -798,8 +840,14 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -830,8 +878,14 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -862,8 +916,14 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -894,8 +954,14 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -926,8 +992,14 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -958,8 +1030,14 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -990,8 +1068,14 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1022,8 +1106,14 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1054,8 +1144,14 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1086,8 +1182,14 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1118,8 +1220,14 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1150,8 +1258,14 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1182,8 +1296,14 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1214,8 +1334,14 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1246,8 +1372,14 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1278,8 +1410,14 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1310,8 +1448,14 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1342,8 +1486,14 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1374,8 +1524,14 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1406,8 +1562,14 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1438,8 +1600,14 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1470,8 +1638,14 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1502,8 +1676,14 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1536,8 +1716,14 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1570,8 +1756,14 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1604,8 +1796,14 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1638,8 +1836,14 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1672,8 +1876,14 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1706,8 +1916,14 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1740,8 +1956,14 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1774,8 +1996,14 @@
       <c r="M37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -1811,8 +2039,14 @@
       <c r="M38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -1848,8 +2082,14 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -1885,8 +2125,14 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -1922,8 +2168,14 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -1959,8 +2211,14 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -1996,8 +2254,14 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2033,8 +2297,14 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2070,8 +2340,14 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2107,8 +2383,14 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2144,8 +2426,14 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2181,8 +2469,14 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2218,8 +2512,14 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2255,8 +2555,14 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2292,8 +2598,14 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2329,8 +2641,14 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2366,8 +2684,14 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2403,8 +2727,14 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2440,8 +2770,14 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2477,8 +2813,14 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2514,8 +2856,14 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2551,8 +2899,14 @@
       <c r="M58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2588,8 +2942,14 @@
       <c r="M59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2625,8 +2985,14 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -2662,8 +3028,14 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -2699,8 +3071,14 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -2736,8 +3114,14 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -2773,8 +3157,14 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -2810,8 +3200,14 @@
       <c r="M65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -2847,8 +3243,14 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -2884,8 +3286,14 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -2921,8 +3329,14 @@
       <c r="M68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -2958,8 +3372,14 @@
       <c r="M69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -2995,8 +3415,14 @@
       <c r="M70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3032,8 +3458,14 @@
       <c r="M71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3069,8 +3501,14 @@
       <c r="M72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3106,8 +3544,14 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3143,8 +3587,14 @@
       <c r="M74" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3180,8 +3630,14 @@
       <c r="M75" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3217,8 +3673,14 @@
       <c r="M76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3254,8 +3716,14 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3291,8 +3759,14 @@
       <c r="M78" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3328,8 +3802,14 @@
       <c r="M79" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3365,8 +3845,14 @@
       <c r="M80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3402,8 +3888,14 @@
       <c r="M81" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3439,8 +3931,14 @@
       <c r="M82" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3476,8 +3974,14 @@
       <c r="M83" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -3513,8 +4017,14 @@
       <c r="M84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -3550,8 +4060,14 @@
       <c r="M85" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -3587,8 +4103,14 @@
       <c r="M86" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -3624,8 +4146,14 @@
       <c r="M87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -3661,8 +4189,14 @@
       <c r="M88" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -3698,8 +4232,14 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -3735,8 +4275,14 @@
       <c r="M90" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -3772,8 +4318,14 @@
       <c r="M91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -3809,8 +4361,14 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -3846,8 +4404,14 @@
       <c r="M93" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -3883,8 +4447,14 @@
       <c r="M94" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -3920,8 +4490,14 @@
       <c r="M95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -3957,8 +4533,14 @@
       <c r="M96" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -3994,8 +4576,14 @@
       <c r="M97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4031,8 +4619,14 @@
       <c r="M98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4068,8 +4662,14 @@
       <c r="M99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4105,8 +4705,14 @@
       <c r="M100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4142,8 +4748,14 @@
       <c r="M101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4179,8 +4791,14 @@
       <c r="M102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4216,8 +4834,14 @@
       <c r="M103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="7">
+        <v>0</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4253,8 +4877,14 @@
       <c r="M104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4290,8 +4920,14 @@
       <c r="M105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4327,8 +4963,14 @@
       <c r="M106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -4364,8 +5006,14 @@
       <c r="M107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -4401,8 +5049,14 @@
       <c r="M108" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -4438,8 +5092,14 @@
       <c r="M109" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -4475,8 +5135,14 @@
       <c r="M110" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -4512,8 +5178,14 @@
       <c r="M111" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -4549,8 +5221,14 @@
       <c r="M112" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="7">
+        <v>0</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -4586,8 +5264,14 @@
       <c r="M113" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -4623,8 +5307,14 @@
       <c r="M114" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="7">
+        <v>0</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -4660,8 +5350,14 @@
       <c r="M115" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -4697,8 +5393,14 @@
       <c r="M116" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -4734,8 +5436,14 @@
       <c r="M117" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="7">
+        <v>0</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -4771,8 +5479,14 @@
       <c r="M118" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="7">
+        <v>0</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -4808,8 +5522,14 @@
       <c r="M119" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -4845,8 +5565,14 @@
       <c r="M120" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -4882,8 +5608,14 @@
       <c r="M121" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -4920,8 +5652,14 @@
       <c r="M122" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -4958,8 +5696,14 @@
       <c r="M123" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -4996,8 +5740,14 @@
       <c r="M124" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5034,8 +5784,14 @@
       <c r="M125" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5072,8 +5828,14 @@
       <c r="M126" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5110,8 +5872,14 @@
       <c r="M127" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5148,8 +5916,14 @@
       <c r="M128" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5186,8 +5960,14 @@
       <c r="M129" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -5224,8 +6004,14 @@
       <c r="M130" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -5262,8 +6048,14 @@
       <c r="M131" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -5300,8 +6092,14 @@
       <c r="M132" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -5338,8 +6136,14 @@
       <c r="M133" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -5376,8 +6180,14 @@
       <c r="M134" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -5414,8 +6224,14 @@
       <c r="M135" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -5452,8 +6268,14 @@
       <c r="M136" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="7">
+        <v>0</v>
+      </c>
+      <c r="O136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -5490,8 +6312,14 @@
       <c r="M137" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -5528,8 +6356,14 @@
       <c r="M138" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -5566,8 +6400,14 @@
       <c r="M139" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="7">
+        <v>0</v>
+      </c>
+      <c r="O139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -5604,8 +6444,14 @@
       <c r="M140" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -5642,8 +6488,14 @@
       <c r="M141" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -5680,8 +6532,14 @@
       <c r="M142" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -5718,8 +6576,14 @@
       <c r="M143" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -5756,8 +6620,14 @@
       <c r="M144" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -5794,8 +6664,14 @@
       <c r="M145" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -5835,8 +6711,14 @@
       <c r="M146" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -5876,8 +6758,14 @@
       <c r="M147" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="7">
+        <v>0</v>
+      </c>
+      <c r="O147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -5917,8 +6805,14 @@
       <c r="M148" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="7">
+        <v>0</v>
+      </c>
+      <c r="O148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -5958,8 +6852,14 @@
       <c r="M149" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="7">
+        <v>0</v>
+      </c>
+      <c r="O149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -5999,8 +6899,14 @@
       <c r="M150" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" s="7">
+        <v>0</v>
+      </c>
+      <c r="O150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6040,8 +6946,14 @@
       <c r="M151" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" s="7">
+        <v>0</v>
+      </c>
+      <c r="O151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6081,8 +6993,14 @@
       <c r="M152" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" s="7">
+        <v>0</v>
+      </c>
+      <c r="O152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -6122,8 +7040,14 @@
       <c r="M153" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" s="7">
+        <v>0</v>
+      </c>
+      <c r="O153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -6163,8 +7087,14 @@
       <c r="M154" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" s="7">
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -6204,8 +7134,14 @@
       <c r="M155" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" s="7">
+        <v>0</v>
+      </c>
+      <c r="O155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -6245,8 +7181,14 @@
       <c r="M156" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="O156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -6286,8 +7228,14 @@
       <c r="M157" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="7">
+        <v>0</v>
+      </c>
+      <c r="O157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -6327,8 +7275,14 @@
       <c r="M158" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158" s="7">
+        <v>0</v>
+      </c>
+      <c r="O158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -6366,10 +7320,16 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
+        <v>0</v>
+      </c>
+      <c r="N159" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="O159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -6407,10 +7367,16 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
+        <v>0</v>
+      </c>
+      <c r="N160" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="O160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -6450,8 +7416,14 @@
       <c r="M161" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" s="7">
+        <v>0</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -6489,10 +7461,16 @@
         <v>94.919470000000004</v>
       </c>
       <c r="M162" s="7">
+        <v>0</v>
+      </c>
+      <c r="N162" s="7">
+        <v>0</v>
+      </c>
+      <c r="O162" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:15">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -6530,10 +7508,16 @@
         <v>95.020539999999997</v>
       </c>
       <c r="M163" s="7">
+        <v>0</v>
+      </c>
+      <c r="N163" s="7">
+        <v>0</v>
+      </c>
+      <c r="O163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:15">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -6573,8 +7557,14 @@
       <c r="M164" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" s="7">
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -6614,8 +7604,14 @@
       <c r="M165" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" s="7">
+        <v>0</v>
+      </c>
+      <c r="O165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -6655,8 +7651,14 @@
       <c r="M166" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" s="7">
+        <v>0</v>
+      </c>
+      <c r="O166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -6696,8 +7698,14 @@
       <c r="M167" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167" s="7">
+        <v>0</v>
+      </c>
+      <c r="O167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -6737,8 +7745,14 @@
       <c r="M168" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" s="7">
+        <v>0</v>
+      </c>
+      <c r="O168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -6778,8 +7792,14 @@
       <c r="M169" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169" s="7">
+        <v>0</v>
+      </c>
+      <c r="O169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -6819,8 +7839,14 @@
       <c r="M170" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" s="7">
+        <v>0</v>
+      </c>
+      <c r="O170" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -6860,8 +7886,14 @@
       <c r="M171" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" s="7">
+        <v>0</v>
+      </c>
+      <c r="O171" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -6901,8 +7933,14 @@
       <c r="M172" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" s="7">
+        <v>0</v>
+      </c>
+      <c r="O172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -6942,8 +7980,14 @@
       <c r="M173" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" s="7">
+        <v>0</v>
+      </c>
+      <c r="O173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -6983,8 +8027,14 @@
       <c r="M174" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" s="7">
+        <v>0</v>
+      </c>
+      <c r="O174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -7024,8 +8074,14 @@
       <c r="M175" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" s="7">
+        <v>0</v>
+      </c>
+      <c r="O175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -7065,8 +8121,14 @@
       <c r="M176" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" s="7">
+        <v>0</v>
+      </c>
+      <c r="O176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -7106,8 +8168,14 @@
       <c r="M177" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" s="7">
+        <v>0</v>
+      </c>
+      <c r="O177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -7147,8 +8215,14 @@
       <c r="M178" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" s="7">
+        <v>0</v>
+      </c>
+      <c r="O178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -7188,8 +8262,14 @@
       <c r="M179" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" s="7">
+        <v>0</v>
+      </c>
+      <c r="O179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -7229,8 +8309,14 @@
       <c r="M180" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" s="7">
+        <v>0</v>
+      </c>
+      <c r="O180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -7270,8 +8356,14 @@
       <c r="M181" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" s="7">
+        <v>0</v>
+      </c>
+      <c r="O181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -7311,8 +8403,14 @@
       <c r="M182" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" s="7">
+        <v>0</v>
+      </c>
+      <c r="O182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -7352,8 +8450,14 @@
       <c r="M183" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" s="7">
+        <v>0</v>
+      </c>
+      <c r="O183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -7393,8 +8497,14 @@
       <c r="M184" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" s="7">
+        <v>0</v>
+      </c>
+      <c r="O184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -7434,8 +8544,14 @@
       <c r="M185" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" s="7">
+        <v>0</v>
+      </c>
+      <c r="O185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -7475,8 +8591,14 @@
       <c r="M186" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186" s="7">
+        <v>0</v>
+      </c>
+      <c r="O186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -7516,8 +8638,14 @@
       <c r="M187" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187" s="7">
+        <v>0</v>
+      </c>
+      <c r="O187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -7557,8 +8685,14 @@
       <c r="M188" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188" s="7">
+        <v>0</v>
+      </c>
+      <c r="O188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -7598,8 +8732,14 @@
       <c r="M189" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" s="7">
+        <v>0</v>
+      </c>
+      <c r="O189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -7639,8 +8779,14 @@
       <c r="M190" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" s="7">
+        <v>0</v>
+      </c>
+      <c r="O190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -7680,8 +8826,14 @@
       <c r="M191" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191" s="7">
+        <v>0</v>
+      </c>
+      <c r="O191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -7721,8 +8873,14 @@
       <c r="M192" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" s="7">
+        <v>0</v>
+      </c>
+      <c r="O192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -7762,8 +8920,14 @@
       <c r="M193" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" s="7">
+        <v>0</v>
+      </c>
+      <c r="O193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -7803,8 +8967,14 @@
       <c r="M194" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" s="7">
+        <v>0</v>
+      </c>
+      <c r="O194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -7844,8 +9014,14 @@
       <c r="M195" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" s="7">
+        <v>0</v>
+      </c>
+      <c r="O195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -7885,8 +9061,14 @@
       <c r="M196" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" s="7">
+        <v>0</v>
+      </c>
+      <c r="O196" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -7926,8 +9108,14 @@
       <c r="M197" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" s="7">
+        <v>0</v>
+      </c>
+      <c r="O197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -7967,8 +9155,14 @@
       <c r="M198" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" s="7">
+        <v>0</v>
+      </c>
+      <c r="O198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -8008,8 +9202,14 @@
       <c r="M199" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="7">
+        <v>0</v>
+      </c>
+      <c r="O199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -8049,8 +9249,14 @@
       <c r="M200" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" s="7">
+        <v>0</v>
+      </c>
+      <c r="O200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -8090,8 +9296,14 @@
       <c r="M201" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" s="7">
+        <v>0</v>
+      </c>
+      <c r="O201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -8131,8 +9343,14 @@
       <c r="M202" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" s="7">
+        <v>0</v>
+      </c>
+      <c r="O202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -8172,8 +9390,14 @@
       <c r="M203" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" s="7">
+        <v>0</v>
+      </c>
+      <c r="O203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -8213,8 +9437,14 @@
       <c r="M204" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" s="7">
+        <v>0</v>
+      </c>
+      <c r="O204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -8254,8 +9484,14 @@
       <c r="M205" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" s="7">
+        <v>0</v>
+      </c>
+      <c r="O205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -8295,8 +9531,14 @@
       <c r="M206" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" s="7">
+        <v>0</v>
+      </c>
+      <c r="O206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -8336,8 +9578,14 @@
       <c r="M207" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" s="7">
+        <v>0</v>
+      </c>
+      <c r="O207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -8377,8 +9625,14 @@
       <c r="M208" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" s="7">
+        <v>0</v>
+      </c>
+      <c r="O208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -8418,8 +9672,14 @@
       <c r="M209" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" s="7">
+        <v>0</v>
+      </c>
+      <c r="O209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -8459,8 +9719,14 @@
       <c r="M210" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" s="7">
+        <v>0</v>
+      </c>
+      <c r="O210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -8500,8 +9766,14 @@
       <c r="M211" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" s="7">
+        <v>0</v>
+      </c>
+      <c r="O211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -8541,8 +9813,14 @@
       <c r="M212" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" s="7">
+        <v>0</v>
+      </c>
+      <c r="O212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -8582,8 +9860,14 @@
       <c r="M213" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" s="7">
+        <v>0</v>
+      </c>
+      <c r="O213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -8623,8 +9907,14 @@
       <c r="M214" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214" s="7">
+        <v>0</v>
+      </c>
+      <c r="O214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -8664,8 +9954,14 @@
       <c r="M215" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" s="7">
+        <v>0</v>
+      </c>
+      <c r="O215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -8705,8 +10001,14 @@
       <c r="M216" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" s="7">
+        <v>0</v>
+      </c>
+      <c r="O216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -8746,8 +10048,14 @@
       <c r="M217" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217" s="7">
+        <v>0</v>
+      </c>
+      <c r="O217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -8787,8 +10095,14 @@
       <c r="M218" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" s="7">
+        <v>0</v>
+      </c>
+      <c r="O218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -8828,8 +10142,14 @@
       <c r="M219" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" s="7">
+        <v>0</v>
+      </c>
+      <c r="O219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -8869,8 +10189,14 @@
       <c r="M220" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" s="7">
+        <v>0</v>
+      </c>
+      <c r="O220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -8910,8 +10236,14 @@
       <c r="M221" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" s="7">
+        <v>0</v>
+      </c>
+      <c r="O221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -8951,8 +10283,14 @@
       <c r="M222" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" s="7">
+        <v>0</v>
+      </c>
+      <c r="O222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -8992,8 +10330,14 @@
       <c r="M223" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" s="7">
+        <v>0</v>
+      </c>
+      <c r="O223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -9033,8 +10377,14 @@
       <c r="M224" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="7">
+        <v>0</v>
+      </c>
+      <c r="O224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -9074,8 +10424,14 @@
       <c r="M225" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="7">
+        <v>0</v>
+      </c>
+      <c r="O225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -9115,8 +10471,14 @@
       <c r="M226" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="7">
+        <v>0</v>
+      </c>
+      <c r="O226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -9156,8 +10518,14 @@
       <c r="M227" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="7">
+        <v>0</v>
+      </c>
+      <c r="O227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -9197,8 +10565,14 @@
       <c r="M228" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="7">
+        <v>0</v>
+      </c>
+      <c r="O228" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -9238,8 +10612,14 @@
       <c r="M229" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="7">
+        <v>0</v>
+      </c>
+      <c r="O229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -9279,8 +10659,14 @@
       <c r="M230" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="7">
+        <v>0</v>
+      </c>
+      <c r="O230" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -9320,8 +10706,14 @@
       <c r="M231" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="7">
+        <v>0</v>
+      </c>
+      <c r="O231" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -9361,8 +10753,14 @@
       <c r="M232" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" s="7">
+        <v>0</v>
+      </c>
+      <c r="O232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -9402,8 +10800,14 @@
       <c r="M233" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" s="7">
+        <v>0</v>
+      </c>
+      <c r="O233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -9443,8 +10847,14 @@
       <c r="M234" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" s="7">
+        <v>0</v>
+      </c>
+      <c r="O234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -9484,8 +10894,14 @@
       <c r="M235" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" s="7">
+        <v>0</v>
+      </c>
+      <c r="O235" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -9525,8 +10941,14 @@
       <c r="M236" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" s="7">
+        <v>0</v>
+      </c>
+      <c r="O236" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -9566,8 +10988,14 @@
       <c r="M237" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" s="7">
+        <v>0</v>
+      </c>
+      <c r="O237" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -9607,8 +11035,14 @@
       <c r="M238" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238" s="7">
+        <v>0</v>
+      </c>
+      <c r="O238" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -9648,8 +11082,14 @@
       <c r="M239" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239" s="7">
+        <v>0</v>
+      </c>
+      <c r="O239" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -9689,8 +11129,14 @@
       <c r="M240" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" s="7">
+        <v>0</v>
+      </c>
+      <c r="O240" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -9730,8 +11176,14 @@
       <c r="M241" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241" s="7">
+        <v>0</v>
+      </c>
+      <c r="O241" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -9771,8 +11223,14 @@
       <c r="M242" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" s="7">
+        <v>0</v>
+      </c>
+      <c r="O242" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -9812,8 +11270,14 @@
       <c r="M243" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" s="7">
+        <v>0</v>
+      </c>
+      <c r="O243" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -9853,8 +11317,14 @@
       <c r="M244" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" s="7">
+        <v>0</v>
+      </c>
+      <c r="O244" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -9894,8 +11364,14 @@
       <c r="M245" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" s="7">
+        <v>0</v>
+      </c>
+      <c r="O245" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -9935,8 +11411,14 @@
       <c r="M246" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" s="7">
+        <v>0</v>
+      </c>
+      <c r="O246" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -9976,8 +11458,14 @@
       <c r="M247" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" s="7">
+        <v>0</v>
+      </c>
+      <c r="O247" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -10017,8 +11505,14 @@
       <c r="M248" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" s="7">
+        <v>0</v>
+      </c>
+      <c r="O248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -10058,8 +11552,14 @@
       <c r="M249" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" s="7">
+        <v>0</v>
+      </c>
+      <c r="O249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -10099,8 +11599,14 @@
       <c r="M250" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" s="7">
+        <v>0</v>
+      </c>
+      <c r="O250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -10140,8 +11646,14 @@
       <c r="M251" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" s="7">
+        <v>0</v>
+      </c>
+      <c r="O251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -10181,8 +11693,14 @@
       <c r="M252" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" s="7">
+        <v>0</v>
+      </c>
+      <c r="O252" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -10222,8 +11740,14 @@
       <c r="M253" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" s="7">
+        <v>0</v>
+      </c>
+      <c r="O253" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -10263,8 +11787,14 @@
       <c r="M254" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" s="7">
+        <v>0</v>
+      </c>
+      <c r="O254" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -10304,8 +11834,14 @@
       <c r="M255" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" s="7">
+        <v>0</v>
+      </c>
+      <c r="O255" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -10345,8 +11881,14 @@
       <c r="M256" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" s="7">
+        <v>0</v>
+      </c>
+      <c r="O256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -10386,8 +11928,14 @@
       <c r="M257" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" s="7">
+        <v>0</v>
+      </c>
+      <c r="O257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -10427,8 +11975,14 @@
       <c r="M258" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" s="7">
+        <v>0</v>
+      </c>
+      <c r="O258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -10468,8 +12022,14 @@
       <c r="M259" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" s="7">
+        <v>0</v>
+      </c>
+      <c r="O259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -10509,8 +12069,14 @@
       <c r="M260" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260" s="7">
+        <v>0</v>
+      </c>
+      <c r="O260" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -10550,8 +12116,14 @@
       <c r="M261" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" s="7">
+        <v>0</v>
+      </c>
+      <c r="O261" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -10591,8 +12163,14 @@
       <c r="M262" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" s="7">
+        <v>0</v>
+      </c>
+      <c r="O262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -10632,8 +12210,14 @@
       <c r="M263" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="7">
+        <v>0</v>
+      </c>
+      <c r="O263" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -10673,8 +12257,14 @@
       <c r="M264" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" s="7">
+        <v>0</v>
+      </c>
+      <c r="O264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -10714,8 +12304,14 @@
       <c r="M265" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265" s="7">
+        <v>0</v>
+      </c>
+      <c r="O265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -10755,8 +12351,14 @@
       <c r="M266" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" s="7">
+        <v>0</v>
+      </c>
+      <c r="O266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -10796,8 +12398,14 @@
       <c r="M267" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" s="7">
+        <v>0</v>
+      </c>
+      <c r="O267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -10837,8 +12445,14 @@
       <c r="M268" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" s="7">
+        <v>0</v>
+      </c>
+      <c r="O268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -10878,8 +12492,14 @@
       <c r="M269" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" s="7">
+        <v>0</v>
+      </c>
+      <c r="O269" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -10919,8 +12539,14 @@
       <c r="M270" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" s="7">
+        <v>0</v>
+      </c>
+      <c r="O270" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -10960,8 +12586,14 @@
       <c r="M271" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" s="7">
+        <v>0</v>
+      </c>
+      <c r="O271" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -11001,8 +12633,14 @@
       <c r="M272" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" s="7">
+        <v>0</v>
+      </c>
+      <c r="O272" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -11042,8 +12680,14 @@
       <c r="M273" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" s="7">
+        <v>0</v>
+      </c>
+      <c r="O273" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -11083,8 +12727,14 @@
       <c r="M274" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" s="7">
+        <v>0</v>
+      </c>
+      <c r="O274" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -11124,8 +12774,14 @@
       <c r="M275" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" s="7">
+        <v>0</v>
+      </c>
+      <c r="O275" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -11165,8 +12821,14 @@
       <c r="M276" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" s="7">
+        <v>0</v>
+      </c>
+      <c r="O276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -11206,8 +12868,14 @@
       <c r="M277" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" s="7">
+        <v>0</v>
+      </c>
+      <c r="O277" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -11247,8 +12915,14 @@
       <c r="M278" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" s="7">
+        <v>0</v>
+      </c>
+      <c r="O278" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -11288,8 +12962,14 @@
       <c r="M279" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279" s="7">
+        <v>0</v>
+      </c>
+      <c r="O279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -11329,8 +13009,14 @@
       <c r="M280" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" s="7">
+        <v>0</v>
+      </c>
+      <c r="O280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -11370,8 +13056,14 @@
       <c r="M281" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" s="7">
+        <v>0</v>
+      </c>
+      <c r="O281" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -11411,8 +13103,14 @@
       <c r="M282" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" s="7">
+        <v>0</v>
+      </c>
+      <c r="O282" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -11452,8 +13150,14 @@
       <c r="M283" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283" s="7">
+        <v>0</v>
+      </c>
+      <c r="O283" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -11493,8 +13197,14 @@
       <c r="M284" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" s="7">
+        <v>0</v>
+      </c>
+      <c r="O284" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -11534,8 +13244,14 @@
       <c r="M285" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" s="7">
+        <v>0</v>
+      </c>
+      <c r="O285" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -11575,8 +13291,14 @@
       <c r="M286" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" s="7">
+        <v>0</v>
+      </c>
+      <c r="O286" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -11616,8 +13338,14 @@
       <c r="M287" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="7">
+        <v>0</v>
+      </c>
+      <c r="O287" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -11657,8 +13385,14 @@
       <c r="M288" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" s="7">
+        <v>0</v>
+      </c>
+      <c r="O288" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -11698,8 +13432,14 @@
       <c r="M289" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" s="7">
+        <v>0</v>
+      </c>
+      <c r="O289" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -11739,8 +13479,14 @@
       <c r="M290" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" s="7">
+        <v>0</v>
+      </c>
+      <c r="O290" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -11780,8 +13526,14 @@
       <c r="M291" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" s="7">
+        <v>0</v>
+      </c>
+      <c r="O291" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -11821,8 +13573,14 @@
       <c r="M292" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292" s="7">
+        <v>0</v>
+      </c>
+      <c r="O292" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -11862,8 +13620,14 @@
       <c r="M293" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" s="7">
+        <v>0</v>
+      </c>
+      <c r="O293" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -11903,8 +13667,14 @@
       <c r="M294" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" s="7">
+        <v>0</v>
+      </c>
+      <c r="O294" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -11944,8 +13714,14 @@
       <c r="M295" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295" s="7">
+        <v>0</v>
+      </c>
+      <c r="O295" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -11985,8 +13761,14 @@
       <c r="M296" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" s="7">
+        <v>0</v>
+      </c>
+      <c r="O296" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -12026,8 +13808,14 @@
       <c r="M297" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" s="7">
+        <v>0</v>
+      </c>
+      <c r="O297" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -12041,7 +13829,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:15">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -12055,7 +13843,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:15">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -12068,7 +13856,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:15">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -12081,14 +13869,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:15">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:15">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -12100,7 +13888,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:15">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>

--- a/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
+++ b/data/Data trimestral 1950 a 2023 con 1 DUMMY CORTA outliers (2q 3q 1989 1q1990) .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB58660-AD3A-0147-920A-87B3525DB076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4EFE0E-F38F-C040-979D-5008AB4137E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
   <si>
     <t>Ebc</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -553,9 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:O643"/>
+  <dimension ref="A1:M643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -572,7 +568,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -612,14 +608,8 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -650,14 +640,8 @@
       <c r="M2" s="7">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -688,14 +672,8 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -726,14 +704,8 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -764,14 +736,8 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -802,14 +768,8 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -840,14 +800,8 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -878,14 +832,8 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -916,14 +864,8 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -954,14 +896,8 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -992,14 +928,8 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1030,14 +960,8 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1068,14 +992,8 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1106,14 +1024,8 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1144,14 +1056,8 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1182,14 +1088,8 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1220,14 +1120,8 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1258,14 +1152,8 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1296,14 +1184,8 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1334,14 +1216,8 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1372,14 +1248,8 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1410,14 +1280,8 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1448,14 +1312,8 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1486,14 +1344,8 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1524,14 +1376,8 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1562,14 +1408,8 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1600,14 +1440,8 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1638,14 +1472,8 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1676,14 +1504,8 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1716,14 +1538,8 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1756,14 +1572,8 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1796,14 +1606,8 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1836,14 +1640,8 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1876,14 +1674,8 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1916,14 +1708,8 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1956,14 +1742,8 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1996,14 +1776,8 @@
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2039,14 +1813,8 @@
       <c r="M38" s="7">
         <v>0</v>
       </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2082,14 +1850,8 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2125,14 +1887,8 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2168,14 +1924,8 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2211,14 +1961,8 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2254,14 +1998,8 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2297,14 +2035,8 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2340,14 +2072,8 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2383,14 +2109,8 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2426,14 +2146,8 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2469,14 +2183,8 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2512,14 +2220,8 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2555,14 +2257,8 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2598,14 +2294,8 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2641,14 +2331,8 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2684,14 +2368,8 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2727,14 +2405,8 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2770,14 +2442,8 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2813,14 +2479,8 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2856,14 +2516,8 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-      <c r="N57" s="7">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2899,14 +2553,8 @@
       <c r="M58" s="7">
         <v>0</v>
       </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2942,14 +2590,8 @@
       <c r="M59" s="7">
         <v>0</v>
       </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2985,14 +2627,8 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3028,14 +2664,8 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3071,14 +2701,8 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3114,14 +2738,8 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3157,14 +2775,8 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3200,14 +2812,8 @@
       <c r="M65" s="7">
         <v>0</v>
       </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3243,14 +2849,8 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-      <c r="N66" s="7">
-        <v>0</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3286,14 +2886,8 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3329,14 +2923,8 @@
       <c r="M68" s="7">
         <v>0</v>
       </c>
-      <c r="N68" s="7">
-        <v>0</v>
-      </c>
-      <c r="O68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3372,14 +2960,8 @@
       <c r="M69" s="7">
         <v>0</v>
       </c>
-      <c r="N69" s="7">
-        <v>0</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3415,14 +2997,8 @@
       <c r="M70" s="7">
         <v>0</v>
       </c>
-      <c r="N70" s="7">
-        <v>0</v>
-      </c>
-      <c r="O70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3458,14 +3034,8 @@
       <c r="M71" s="7">
         <v>0</v>
       </c>
-      <c r="N71" s="7">
-        <v>0</v>
-      </c>
-      <c r="O71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3501,14 +3071,8 @@
       <c r="M72" s="7">
         <v>0</v>
       </c>
-      <c r="N72" s="7">
-        <v>0</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3544,14 +3108,8 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-      <c r="N73" s="7">
-        <v>0</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3587,14 +3145,8 @@
       <c r="M74" s="7">
         <v>0</v>
       </c>
-      <c r="N74" s="7">
-        <v>0</v>
-      </c>
-      <c r="O74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3630,14 +3182,8 @@
       <c r="M75" s="7">
         <v>0</v>
       </c>
-      <c r="N75" s="7">
-        <v>0</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3673,14 +3219,8 @@
       <c r="M76" s="7">
         <v>0</v>
       </c>
-      <c r="N76" s="7">
-        <v>0</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3716,14 +3256,8 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-      <c r="N77" s="7">
-        <v>0</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3759,14 +3293,8 @@
       <c r="M78" s="7">
         <v>0</v>
       </c>
-      <c r="N78" s="7">
-        <v>0</v>
-      </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3802,14 +3330,8 @@
       <c r="M79" s="7">
         <v>0</v>
       </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3845,14 +3367,8 @@
       <c r="M80" s="7">
         <v>0</v>
       </c>
-      <c r="N80" s="7">
-        <v>0</v>
-      </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3888,14 +3404,8 @@
       <c r="M81" s="7">
         <v>0</v>
       </c>
-      <c r="N81" s="7">
-        <v>0</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3931,14 +3441,8 @@
       <c r="M82" s="7">
         <v>0</v>
       </c>
-      <c r="N82" s="7">
-        <v>0</v>
-      </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3974,14 +3478,8 @@
       <c r="M83" s="7">
         <v>0</v>
       </c>
-      <c r="N83" s="7">
-        <v>0</v>
-      </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4017,14 +3515,8 @@
       <c r="M84" s="7">
         <v>0</v>
       </c>
-      <c r="N84" s="7">
-        <v>0</v>
-      </c>
-      <c r="O84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4060,14 +3552,8 @@
       <c r="M85" s="7">
         <v>0</v>
       </c>
-      <c r="N85" s="7">
-        <v>0</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4103,14 +3589,8 @@
       <c r="M86" s="7">
         <v>0</v>
       </c>
-      <c r="N86" s="7">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4146,14 +3626,8 @@
       <c r="M87" s="7">
         <v>0</v>
       </c>
-      <c r="N87" s="7">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4189,14 +3663,8 @@
       <c r="M88" s="7">
         <v>0</v>
       </c>
-      <c r="N88" s="7">
-        <v>0</v>
-      </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -4232,14 +3700,8 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-      <c r="N89" s="7">
-        <v>0</v>
-      </c>
-      <c r="O89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4275,14 +3737,8 @@
       <c r="M90" s="7">
         <v>0</v>
       </c>
-      <c r="N90" s="7">
-        <v>0</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4318,14 +3774,8 @@
       <c r="M91" s="7">
         <v>0</v>
       </c>
-      <c r="N91" s="7">
-        <v>0</v>
-      </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4361,14 +3811,8 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-      <c r="N92" s="7">
-        <v>0</v>
-      </c>
-      <c r="O92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4404,14 +3848,8 @@
       <c r="M93" s="7">
         <v>0</v>
       </c>
-      <c r="N93" s="7">
-        <v>0</v>
-      </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -4447,14 +3885,8 @@
       <c r="M94" s="7">
         <v>0</v>
       </c>
-      <c r="N94" s="7">
-        <v>0</v>
-      </c>
-      <c r="O94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -4490,14 +3922,8 @@
       <c r="M95" s="7">
         <v>0</v>
       </c>
-      <c r="N95" s="7">
-        <v>0</v>
-      </c>
-      <c r="O95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -4533,14 +3959,8 @@
       <c r="M96" s="7">
         <v>0</v>
       </c>
-      <c r="N96" s="7">
-        <v>0</v>
-      </c>
-      <c r="O96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -4576,14 +3996,8 @@
       <c r="M97" s="7">
         <v>0</v>
       </c>
-      <c r="N97" s="7">
-        <v>0</v>
-      </c>
-      <c r="O97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4619,14 +4033,8 @@
       <c r="M98" s="7">
         <v>0</v>
       </c>
-      <c r="N98" s="7">
-        <v>0</v>
-      </c>
-      <c r="O98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4662,14 +4070,8 @@
       <c r="M99" s="7">
         <v>0</v>
       </c>
-      <c r="N99" s="7">
-        <v>0</v>
-      </c>
-      <c r="O99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4705,14 +4107,8 @@
       <c r="M100" s="7">
         <v>0</v>
       </c>
-      <c r="N100" s="7">
-        <v>0</v>
-      </c>
-      <c r="O100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4748,14 +4144,8 @@
       <c r="M101" s="7">
         <v>0</v>
       </c>
-      <c r="N101" s="7">
-        <v>0</v>
-      </c>
-      <c r="O101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4791,14 +4181,8 @@
       <c r="M102" s="7">
         <v>0</v>
       </c>
-      <c r="N102" s="7">
-        <v>0</v>
-      </c>
-      <c r="O102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4834,14 +4218,8 @@
       <c r="M103" s="7">
         <v>0</v>
       </c>
-      <c r="N103" s="7">
-        <v>0</v>
-      </c>
-      <c r="O103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4877,14 +4255,8 @@
       <c r="M104" s="7">
         <v>0</v>
       </c>
-      <c r="N104" s="7">
-        <v>0</v>
-      </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4920,14 +4292,8 @@
       <c r="M105" s="7">
         <v>0</v>
       </c>
-      <c r="N105" s="7">
-        <v>0</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4963,14 +4329,8 @@
       <c r="M106" s="7">
         <v>0</v>
       </c>
-      <c r="N106" s="7">
-        <v>0</v>
-      </c>
-      <c r="O106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5006,14 +4366,8 @@
       <c r="M107" s="7">
         <v>0</v>
       </c>
-      <c r="N107" s="7">
-        <v>0</v>
-      </c>
-      <c r="O107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -5049,14 +4403,8 @@
       <c r="M108" s="7">
         <v>0</v>
       </c>
-      <c r="N108" s="7">
-        <v>0</v>
-      </c>
-      <c r="O108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -5092,14 +4440,8 @@
       <c r="M109" s="7">
         <v>0</v>
       </c>
-      <c r="N109" s="7">
-        <v>0</v>
-      </c>
-      <c r="O109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -5135,14 +4477,8 @@
       <c r="M110" s="7">
         <v>0</v>
       </c>
-      <c r="N110" s="7">
-        <v>0</v>
-      </c>
-      <c r="O110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -5178,14 +4514,8 @@
       <c r="M111" s="7">
         <v>0</v>
       </c>
-      <c r="N111" s="7">
-        <v>0</v>
-      </c>
-      <c r="O111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -5221,14 +4551,8 @@
       <c r="M112" s="7">
         <v>0</v>
       </c>
-      <c r="N112" s="7">
-        <v>0</v>
-      </c>
-      <c r="O112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -5264,14 +4588,8 @@
       <c r="M113" s="7">
         <v>0</v>
       </c>
-      <c r="N113" s="7">
-        <v>0</v>
-      </c>
-      <c r="O113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -5307,14 +4625,8 @@
       <c r="M114" s="7">
         <v>0</v>
       </c>
-      <c r="N114" s="7">
-        <v>0</v>
-      </c>
-      <c r="O114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -5350,14 +4662,8 @@
       <c r="M115" s="7">
         <v>0</v>
       </c>
-      <c r="N115" s="7">
-        <v>0</v>
-      </c>
-      <c r="O115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -5393,14 +4699,8 @@
       <c r="M116" s="7">
         <v>0</v>
       </c>
-      <c r="N116" s="7">
-        <v>0</v>
-      </c>
-      <c r="O116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -5436,14 +4736,8 @@
       <c r="M117" s="7">
         <v>0</v>
       </c>
-      <c r="N117" s="7">
-        <v>0</v>
-      </c>
-      <c r="O117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -5479,14 +4773,8 @@
       <c r="M118" s="7">
         <v>0</v>
       </c>
-      <c r="N118" s="7">
-        <v>0</v>
-      </c>
-      <c r="O118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -5522,14 +4810,8 @@
       <c r="M119" s="7">
         <v>0</v>
       </c>
-      <c r="N119" s="7">
-        <v>0</v>
-      </c>
-      <c r="O119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -5565,14 +4847,8 @@
       <c r="M120" s="7">
         <v>0</v>
       </c>
-      <c r="N120" s="7">
-        <v>0</v>
-      </c>
-      <c r="O120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -5608,14 +4884,8 @@
       <c r="M121" s="7">
         <v>0</v>
       </c>
-      <c r="N121" s="7">
-        <v>0</v>
-      </c>
-      <c r="O121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -5652,14 +4922,8 @@
       <c r="M122" s="7">
         <v>0</v>
       </c>
-      <c r="N122" s="7">
-        <v>0</v>
-      </c>
-      <c r="O122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -5696,14 +4960,8 @@
       <c r="M123" s="7">
         <v>0</v>
       </c>
-      <c r="N123" s="7">
-        <v>0</v>
-      </c>
-      <c r="O123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -5740,14 +4998,8 @@
       <c r="M124" s="7">
         <v>0</v>
       </c>
-      <c r="N124" s="7">
-        <v>0</v>
-      </c>
-      <c r="O124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5784,14 +5036,8 @@
       <c r="M125" s="7">
         <v>0</v>
       </c>
-      <c r="N125" s="7">
-        <v>0</v>
-      </c>
-      <c r="O125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5828,14 +5074,8 @@
       <c r="M126" s="7">
         <v>0</v>
       </c>
-      <c r="N126" s="7">
-        <v>0</v>
-      </c>
-      <c r="O126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5872,14 +5112,8 @@
       <c r="M127" s="7">
         <v>0</v>
       </c>
-      <c r="N127" s="7">
-        <v>0</v>
-      </c>
-      <c r="O127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5916,14 +5150,8 @@
       <c r="M128" s="7">
         <v>0</v>
       </c>
-      <c r="N128" s="7">
-        <v>0</v>
-      </c>
-      <c r="O128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5960,14 +5188,8 @@
       <c r="M129" s="7">
         <v>0</v>
       </c>
-      <c r="N129" s="7">
-        <v>0</v>
-      </c>
-      <c r="O129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -6004,14 +5226,8 @@
       <c r="M130" s="7">
         <v>0</v>
       </c>
-      <c r="N130" s="7">
-        <v>0</v>
-      </c>
-      <c r="O130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -6048,14 +5264,8 @@
       <c r="M131" s="7">
         <v>0</v>
       </c>
-      <c r="N131" s="7">
-        <v>0</v>
-      </c>
-      <c r="O131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -6092,14 +5302,8 @@
       <c r="M132" s="7">
         <v>0</v>
       </c>
-      <c r="N132" s="7">
-        <v>0</v>
-      </c>
-      <c r="O132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -6136,14 +5340,8 @@
       <c r="M133" s="7">
         <v>0</v>
       </c>
-      <c r="N133" s="7">
-        <v>0</v>
-      </c>
-      <c r="O133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -6180,14 +5378,8 @@
       <c r="M134" s="7">
         <v>0</v>
       </c>
-      <c r="N134" s="7">
-        <v>0</v>
-      </c>
-      <c r="O134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -6224,14 +5416,8 @@
       <c r="M135" s="7">
         <v>0</v>
       </c>
-      <c r="N135" s="7">
-        <v>0</v>
-      </c>
-      <c r="O135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -6268,14 +5454,8 @@
       <c r="M136" s="7">
         <v>0</v>
       </c>
-      <c r="N136" s="7">
-        <v>0</v>
-      </c>
-      <c r="O136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -6312,14 +5492,8 @@
       <c r="M137" s="7">
         <v>0</v>
       </c>
-      <c r="N137" s="7">
-        <v>0</v>
-      </c>
-      <c r="O137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -6356,14 +5530,8 @@
       <c r="M138" s="7">
         <v>0</v>
       </c>
-      <c r="N138" s="7">
-        <v>0</v>
-      </c>
-      <c r="O138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -6400,14 +5568,8 @@
       <c r="M139" s="7">
         <v>0</v>
       </c>
-      <c r="N139" s="7">
-        <v>0</v>
-      </c>
-      <c r="O139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -6444,14 +5606,8 @@
       <c r="M140" s="7">
         <v>0</v>
       </c>
-      <c r="N140" s="7">
-        <v>0</v>
-      </c>
-      <c r="O140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -6488,14 +5644,8 @@
       <c r="M141" s="7">
         <v>0</v>
       </c>
-      <c r="N141" s="7">
-        <v>0</v>
-      </c>
-      <c r="O141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -6532,14 +5682,8 @@
       <c r="M142" s="7">
         <v>0</v>
       </c>
-      <c r="N142" s="7">
-        <v>0</v>
-      </c>
-      <c r="O142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -6576,14 +5720,8 @@
       <c r="M143" s="7">
         <v>0</v>
       </c>
-      <c r="N143" s="7">
-        <v>0</v>
-      </c>
-      <c r="O143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -6620,14 +5758,8 @@
       <c r="M144" s="7">
         <v>0</v>
       </c>
-      <c r="N144" s="7">
-        <v>0</v>
-      </c>
-      <c r="O144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -6664,14 +5796,8 @@
       <c r="M145" s="7">
         <v>0</v>
       </c>
-      <c r="N145" s="7">
-        <v>0</v>
-      </c>
-      <c r="O145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -6711,14 +5837,8 @@
       <c r="M146" s="7">
         <v>0</v>
       </c>
-      <c r="N146" s="7">
-        <v>0</v>
-      </c>
-      <c r="O146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -6758,14 +5878,8 @@
       <c r="M147" s="7">
         <v>0</v>
       </c>
-      <c r="N147" s="7">
-        <v>0</v>
-      </c>
-      <c r="O147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -6805,14 +5919,8 @@
       <c r="M148" s="7">
         <v>0</v>
       </c>
-      <c r="N148" s="7">
-        <v>0</v>
-      </c>
-      <c r="O148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -6852,14 +5960,8 @@
       <c r="M149" s="7">
         <v>0</v>
       </c>
-      <c r="N149" s="7">
-        <v>0</v>
-      </c>
-      <c r="O149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -6899,14 +6001,8 @@
       <c r="M150" s="7">
         <v>0</v>
       </c>
-      <c r="N150" s="7">
-        <v>0</v>
-      </c>
-      <c r="O150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6946,14 +6042,8 @@
       <c r="M151" s="7">
         <v>0</v>
       </c>
-      <c r="N151" s="7">
-        <v>0</v>
-      </c>
-      <c r="O151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6993,14 +6083,8 @@
       <c r="M152" s="7">
         <v>0</v>
       </c>
-      <c r="N152" s="7">
-        <v>0</v>
-      </c>
-      <c r="O152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -7040,14 +6124,8 @@
       <c r="M153" s="7">
         <v>0</v>
       </c>
-      <c r="N153" s="7">
-        <v>0</v>
-      </c>
-      <c r="O153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -7087,14 +6165,8 @@
       <c r="M154" s="7">
         <v>0</v>
       </c>
-      <c r="N154" s="7">
-        <v>0</v>
-      </c>
-      <c r="O154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -7134,14 +6206,8 @@
       <c r="M155" s="7">
         <v>1</v>
       </c>
-      <c r="N155" s="7">
-        <v>0</v>
-      </c>
-      <c r="O155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -7181,14 +6247,8 @@
       <c r="M156" s="7">
         <v>1</v>
       </c>
-      <c r="N156" s="7">
-        <v>0</v>
-      </c>
-      <c r="O156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -7226,16 +6286,10 @@
         <v>95.418700000000001</v>
       </c>
       <c r="M157" s="7">
-        <v>0</v>
-      </c>
-      <c r="N157" s="7">
-        <v>0</v>
-      </c>
-      <c r="O157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -7273,16 +6327,10 @@
         <v>95.395269999999996</v>
       </c>
       <c r="M158" s="7">
-        <v>0</v>
-      </c>
-      <c r="N158" s="7">
-        <v>0</v>
-      </c>
-      <c r="O158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -7320,16 +6368,10 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
-        <v>0</v>
-      </c>
-      <c r="N159" s="7">
         <v>1</v>
       </c>
-      <c r="O159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -7367,16 +6409,10 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
-        <v>0</v>
-      </c>
-      <c r="N160" s="7">
         <v>1</v>
       </c>
-      <c r="O160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -7414,16 +6450,10 @@
         <v>95.049710000000005</v>
       </c>
       <c r="M161" s="7">
-        <v>0</v>
-      </c>
-      <c r="N161" s="7">
-        <v>0</v>
-      </c>
-      <c r="O161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -7461,16 +6491,10 @@
         <v>94.919470000000004</v>
       </c>
       <c r="M162" s="7">
-        <v>0</v>
-      </c>
-      <c r="N162" s="7">
-        <v>0</v>
-      </c>
-      <c r="O162" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:13">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -7508,16 +6532,10 @@
         <v>95.020539999999997</v>
       </c>
       <c r="M163" s="7">
-        <v>0</v>
-      </c>
-      <c r="N163" s="7">
-        <v>0</v>
-      </c>
-      <c r="O163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:13">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -7555,16 +6573,10 @@
         <v>94.878389999999996</v>
       </c>
       <c r="M164" s="7">
-        <v>0</v>
-      </c>
-      <c r="N164" s="7">
-        <v>0</v>
-      </c>
-      <c r="O164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -7604,14 +6616,8 @@
       <c r="M165" s="7">
         <v>0</v>
       </c>
-      <c r="N165" s="7">
-        <v>0</v>
-      </c>
-      <c r="O165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -7651,14 +6657,8 @@
       <c r="M166" s="7">
         <v>0</v>
       </c>
-      <c r="N166" s="7">
-        <v>0</v>
-      </c>
-      <c r="O166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -7698,14 +6698,8 @@
       <c r="M167" s="7">
         <v>0</v>
       </c>
-      <c r="N167" s="7">
-        <v>0</v>
-      </c>
-      <c r="O167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -7745,14 +6739,8 @@
       <c r="M168" s="7">
         <v>0</v>
       </c>
-      <c r="N168" s="7">
-        <v>0</v>
-      </c>
-      <c r="O168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -7792,14 +6780,8 @@
       <c r="M169" s="7">
         <v>0</v>
       </c>
-      <c r="N169" s="7">
-        <v>0</v>
-      </c>
-      <c r="O169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -7839,14 +6821,8 @@
       <c r="M170" s="7">
         <v>0</v>
       </c>
-      <c r="N170" s="7">
-        <v>0</v>
-      </c>
-      <c r="O170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -7886,14 +6862,8 @@
       <c r="M171" s="7">
         <v>0</v>
       </c>
-      <c r="N171" s="7">
-        <v>0</v>
-      </c>
-      <c r="O171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -7933,14 +6903,8 @@
       <c r="M172" s="7">
         <v>0</v>
       </c>
-      <c r="N172" s="7">
-        <v>0</v>
-      </c>
-      <c r="O172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -7980,14 +6944,8 @@
       <c r="M173" s="7">
         <v>0</v>
       </c>
-      <c r="N173" s="7">
-        <v>0</v>
-      </c>
-      <c r="O173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -8027,14 +6985,8 @@
       <c r="M174" s="7">
         <v>0</v>
       </c>
-      <c r="N174" s="7">
-        <v>0</v>
-      </c>
-      <c r="O174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -8074,14 +7026,8 @@
       <c r="M175" s="7">
         <v>0</v>
       </c>
-      <c r="N175" s="7">
-        <v>0</v>
-      </c>
-      <c r="O175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -8121,14 +7067,8 @@
       <c r="M176" s="7">
         <v>0</v>
       </c>
-      <c r="N176" s="7">
-        <v>0</v>
-      </c>
-      <c r="O176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -8168,14 +7108,8 @@
       <c r="M177" s="7">
         <v>0</v>
       </c>
-      <c r="N177" s="7">
-        <v>0</v>
-      </c>
-      <c r="O177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -8215,14 +7149,8 @@
       <c r="M178" s="7">
         <v>0</v>
       </c>
-      <c r="N178" s="7">
-        <v>0</v>
-      </c>
-      <c r="O178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -8262,14 +7190,8 @@
       <c r="M179" s="7">
         <v>0</v>
       </c>
-      <c r="N179" s="7">
-        <v>0</v>
-      </c>
-      <c r="O179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -8309,14 +7231,8 @@
       <c r="M180" s="7">
         <v>0</v>
       </c>
-      <c r="N180" s="7">
-        <v>0</v>
-      </c>
-      <c r="O180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -8356,14 +7272,8 @@
       <c r="M181" s="7">
         <v>0</v>
       </c>
-      <c r="N181" s="7">
-        <v>0</v>
-      </c>
-      <c r="O181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -8403,14 +7313,8 @@
       <c r="M182" s="7">
         <v>0</v>
       </c>
-      <c r="N182" s="7">
-        <v>0</v>
-      </c>
-      <c r="O182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -8450,14 +7354,8 @@
       <c r="M183" s="7">
         <v>0</v>
       </c>
-      <c r="N183" s="7">
-        <v>0</v>
-      </c>
-      <c r="O183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -8497,14 +7395,8 @@
       <c r="M184" s="7">
         <v>0</v>
       </c>
-      <c r="N184" s="7">
-        <v>0</v>
-      </c>
-      <c r="O184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -8544,14 +7436,8 @@
       <c r="M185" s="7">
         <v>0</v>
       </c>
-      <c r="N185" s="7">
-        <v>0</v>
-      </c>
-      <c r="O185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -8591,14 +7477,8 @@
       <c r="M186" s="7">
         <v>0</v>
       </c>
-      <c r="N186" s="7">
-        <v>0</v>
-      </c>
-      <c r="O186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -8638,14 +7518,8 @@
       <c r="M187" s="7">
         <v>0</v>
       </c>
-      <c r="N187" s="7">
-        <v>0</v>
-      </c>
-      <c r="O187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -8685,14 +7559,8 @@
       <c r="M188" s="7">
         <v>0</v>
       </c>
-      <c r="N188" s="7">
-        <v>0</v>
-      </c>
-      <c r="O188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -8732,14 +7600,8 @@
       <c r="M189" s="7">
         <v>0</v>
       </c>
-      <c r="N189" s="7">
-        <v>0</v>
-      </c>
-      <c r="O189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -8779,14 +7641,8 @@
       <c r="M190" s="7">
         <v>0</v>
       </c>
-      <c r="N190" s="7">
-        <v>0</v>
-      </c>
-      <c r="O190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -8826,14 +7682,8 @@
       <c r="M191" s="7">
         <v>0</v>
       </c>
-      <c r="N191" s="7">
-        <v>0</v>
-      </c>
-      <c r="O191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -8873,14 +7723,8 @@
       <c r="M192" s="7">
         <v>0</v>
       </c>
-      <c r="N192" s="7">
-        <v>0</v>
-      </c>
-      <c r="O192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -8920,14 +7764,8 @@
       <c r="M193" s="7">
         <v>0</v>
       </c>
-      <c r="N193" s="7">
-        <v>0</v>
-      </c>
-      <c r="O193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -8967,14 +7805,8 @@
       <c r="M194" s="7">
         <v>0</v>
       </c>
-      <c r="N194" s="7">
-        <v>0</v>
-      </c>
-      <c r="O194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -9014,14 +7846,8 @@
       <c r="M195" s="7">
         <v>0</v>
       </c>
-      <c r="N195" s="7">
-        <v>0</v>
-      </c>
-      <c r="O195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -9061,14 +7887,8 @@
       <c r="M196" s="7">
         <v>0</v>
       </c>
-      <c r="N196" s="7">
-        <v>0</v>
-      </c>
-      <c r="O196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -9108,14 +7928,8 @@
       <c r="M197" s="7">
         <v>0</v>
       </c>
-      <c r="N197" s="7">
-        <v>0</v>
-      </c>
-      <c r="O197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15">
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -9155,14 +7969,8 @@
       <c r="M198" s="7">
         <v>0</v>
       </c>
-      <c r="N198" s="7">
-        <v>0</v>
-      </c>
-      <c r="O198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -9202,14 +8010,8 @@
       <c r="M199" s="7">
         <v>0</v>
       </c>
-      <c r="N199" s="7">
-        <v>0</v>
-      </c>
-      <c r="O199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -9249,14 +8051,8 @@
       <c r="M200" s="7">
         <v>0</v>
       </c>
-      <c r="N200" s="7">
-        <v>0</v>
-      </c>
-      <c r="O200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -9296,14 +8092,8 @@
       <c r="M201" s="7">
         <v>0</v>
       </c>
-      <c r="N201" s="7">
-        <v>0</v>
-      </c>
-      <c r="O201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15">
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -9343,14 +8133,8 @@
       <c r="M202" s="7">
         <v>0</v>
       </c>
-      <c r="N202" s="7">
-        <v>0</v>
-      </c>
-      <c r="O202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15">
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -9390,14 +8174,8 @@
       <c r="M203" s="7">
         <v>0</v>
       </c>
-      <c r="N203" s="7">
-        <v>0</v>
-      </c>
-      <c r="O203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15">
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -9437,14 +8215,8 @@
       <c r="M204" s="7">
         <v>0</v>
       </c>
-      <c r="N204" s="7">
-        <v>0</v>
-      </c>
-      <c r="O204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -9484,14 +8256,8 @@
       <c r="M205" s="7">
         <v>0</v>
       </c>
-      <c r="N205" s="7">
-        <v>0</v>
-      </c>
-      <c r="O205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -9531,14 +8297,8 @@
       <c r="M206" s="7">
         <v>0</v>
       </c>
-      <c r="N206" s="7">
-        <v>0</v>
-      </c>
-      <c r="O206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -9578,14 +8338,8 @@
       <c r="M207" s="7">
         <v>0</v>
       </c>
-      <c r="N207" s="7">
-        <v>0</v>
-      </c>
-      <c r="O207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -9625,14 +8379,8 @@
       <c r="M208" s="7">
         <v>0</v>
       </c>
-      <c r="N208" s="7">
-        <v>0</v>
-      </c>
-      <c r="O208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -9672,14 +8420,8 @@
       <c r="M209" s="7">
         <v>0</v>
       </c>
-      <c r="N209" s="7">
-        <v>0</v>
-      </c>
-      <c r="O209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15">
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -9719,14 +8461,8 @@
       <c r="M210" s="7">
         <v>0</v>
       </c>
-      <c r="N210" s="7">
-        <v>0</v>
-      </c>
-      <c r="O210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -9766,14 +8502,8 @@
       <c r="M211" s="7">
         <v>0</v>
       </c>
-      <c r="N211" s="7">
-        <v>0</v>
-      </c>
-      <c r="O211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -9813,14 +8543,8 @@
       <c r="M212" s="7">
         <v>0</v>
       </c>
-      <c r="N212" s="7">
-        <v>0</v>
-      </c>
-      <c r="O212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -9860,14 +8584,8 @@
       <c r="M213" s="7">
         <v>0</v>
       </c>
-      <c r="N213" s="7">
-        <v>0</v>
-      </c>
-      <c r="O213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -9907,14 +8625,8 @@
       <c r="M214" s="7">
         <v>0</v>
       </c>
-      <c r="N214" s="7">
-        <v>0</v>
-      </c>
-      <c r="O214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -9954,14 +8666,8 @@
       <c r="M215" s="7">
         <v>0</v>
       </c>
-      <c r="N215" s="7">
-        <v>0</v>
-      </c>
-      <c r="O215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -10001,14 +8707,8 @@
       <c r="M216" s="7">
         <v>0</v>
       </c>
-      <c r="N216" s="7">
-        <v>0</v>
-      </c>
-      <c r="O216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -10048,14 +8748,8 @@
       <c r="M217" s="7">
         <v>0</v>
       </c>
-      <c r="N217" s="7">
-        <v>0</v>
-      </c>
-      <c r="O217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -10095,14 +8789,8 @@
       <c r="M218" s="7">
         <v>0</v>
       </c>
-      <c r="N218" s="7">
-        <v>0</v>
-      </c>
-      <c r="O218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -10142,14 +8830,8 @@
       <c r="M219" s="7">
         <v>0</v>
       </c>
-      <c r="N219" s="7">
-        <v>0</v>
-      </c>
-      <c r="O219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -10189,14 +8871,8 @@
       <c r="M220" s="7">
         <v>0</v>
       </c>
-      <c r="N220" s="7">
-        <v>0</v>
-      </c>
-      <c r="O220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -10236,14 +8912,8 @@
       <c r="M221" s="7">
         <v>0</v>
       </c>
-      <c r="N221" s="7">
-        <v>0</v>
-      </c>
-      <c r="O221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -10283,14 +8953,8 @@
       <c r="M222" s="7">
         <v>0</v>
       </c>
-      <c r="N222" s="7">
-        <v>0</v>
-      </c>
-      <c r="O222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -10330,14 +8994,8 @@
       <c r="M223" s="7">
         <v>0</v>
       </c>
-      <c r="N223" s="7">
-        <v>0</v>
-      </c>
-      <c r="O223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -10377,14 +9035,8 @@
       <c r="M224" s="7">
         <v>0</v>
       </c>
-      <c r="N224" s="7">
-        <v>0</v>
-      </c>
-      <c r="O224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -10424,14 +9076,8 @@
       <c r="M225" s="7">
         <v>0</v>
       </c>
-      <c r="N225" s="7">
-        <v>0</v>
-      </c>
-      <c r="O225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -10471,14 +9117,8 @@
       <c r="M226" s="7">
         <v>0</v>
       </c>
-      <c r="N226" s="7">
-        <v>0</v>
-      </c>
-      <c r="O226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -10518,14 +9158,8 @@
       <c r="M227" s="7">
         <v>0</v>
       </c>
-      <c r="N227" s="7">
-        <v>0</v>
-      </c>
-      <c r="O227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -10565,14 +9199,8 @@
       <c r="M228" s="7">
         <v>0</v>
       </c>
-      <c r="N228" s="7">
-        <v>0</v>
-      </c>
-      <c r="O228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -10612,14 +9240,8 @@
       <c r="M229" s="7">
         <v>0</v>
       </c>
-      <c r="N229" s="7">
-        <v>0</v>
-      </c>
-      <c r="O229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -10659,14 +9281,8 @@
       <c r="M230" s="7">
         <v>0</v>
       </c>
-      <c r="N230" s="7">
-        <v>0</v>
-      </c>
-      <c r="O230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -10706,14 +9322,8 @@
       <c r="M231" s="7">
         <v>0</v>
       </c>
-      <c r="N231" s="7">
-        <v>0</v>
-      </c>
-      <c r="O231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15">
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -10753,14 +9363,8 @@
       <c r="M232" s="7">
         <v>0</v>
       </c>
-      <c r="N232" s="7">
-        <v>0</v>
-      </c>
-      <c r="O232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15">
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -10800,14 +9404,8 @@
       <c r="M233" s="7">
         <v>0</v>
       </c>
-      <c r="N233" s="7">
-        <v>0</v>
-      </c>
-      <c r="O233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -10847,14 +9445,8 @@
       <c r="M234" s="7">
         <v>0</v>
       </c>
-      <c r="N234" s="7">
-        <v>0</v>
-      </c>
-      <c r="O234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15">
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -10894,14 +9486,8 @@
       <c r="M235" s="7">
         <v>0</v>
       </c>
-      <c r="N235" s="7">
-        <v>0</v>
-      </c>
-      <c r="O235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -10941,14 +9527,8 @@
       <c r="M236" s="7">
         <v>0</v>
       </c>
-      <c r="N236" s="7">
-        <v>0</v>
-      </c>
-      <c r="O236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15">
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -10988,14 +9568,8 @@
       <c r="M237" s="7">
         <v>0</v>
       </c>
-      <c r="N237" s="7">
-        <v>0</v>
-      </c>
-      <c r="O237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15">
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -11035,14 +9609,8 @@
       <c r="M238" s="7">
         <v>0</v>
       </c>
-      <c r="N238" s="7">
-        <v>0</v>
-      </c>
-      <c r="O238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -11082,14 +9650,8 @@
       <c r="M239" s="7">
         <v>0</v>
       </c>
-      <c r="N239" s="7">
-        <v>0</v>
-      </c>
-      <c r="O239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -11129,14 +9691,8 @@
       <c r="M240" s="7">
         <v>0</v>
       </c>
-      <c r="N240" s="7">
-        <v>0</v>
-      </c>
-      <c r="O240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15">
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -11176,14 +9732,8 @@
       <c r="M241" s="7">
         <v>0</v>
       </c>
-      <c r="N241" s="7">
-        <v>0</v>
-      </c>
-      <c r="O241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -11223,14 +9773,8 @@
       <c r="M242" s="7">
         <v>0</v>
       </c>
-      <c r="N242" s="7">
-        <v>0</v>
-      </c>
-      <c r="O242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15">
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -11270,14 +9814,8 @@
       <c r="M243" s="7">
         <v>0</v>
       </c>
-      <c r="N243" s="7">
-        <v>0</v>
-      </c>
-      <c r="O243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15">
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -11317,14 +9855,8 @@
       <c r="M244" s="7">
         <v>0</v>
       </c>
-      <c r="N244" s="7">
-        <v>0</v>
-      </c>
-      <c r="O244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -11364,14 +9896,8 @@
       <c r="M245" s="7">
         <v>0</v>
       </c>
-      <c r="N245" s="7">
-        <v>0</v>
-      </c>
-      <c r="O245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15">
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -11411,14 +9937,8 @@
       <c r="M246" s="7">
         <v>0</v>
       </c>
-      <c r="N246" s="7">
-        <v>0</v>
-      </c>
-      <c r="O246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15">
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -11458,14 +9978,8 @@
       <c r="M247" s="7">
         <v>0</v>
       </c>
-      <c r="N247" s="7">
-        <v>0</v>
-      </c>
-      <c r="O247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15">
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -11505,14 +10019,8 @@
       <c r="M248" s="7">
         <v>0</v>
       </c>
-      <c r="N248" s="7">
-        <v>0</v>
-      </c>
-      <c r="O248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15">
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -11552,14 +10060,8 @@
       <c r="M249" s="7">
         <v>0</v>
       </c>
-      <c r="N249" s="7">
-        <v>0</v>
-      </c>
-      <c r="O249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15">
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -11599,14 +10101,8 @@
       <c r="M250" s="7">
         <v>0</v>
       </c>
-      <c r="N250" s="7">
-        <v>0</v>
-      </c>
-      <c r="O250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15">
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -11646,14 +10142,8 @@
       <c r="M251" s="7">
         <v>0</v>
       </c>
-      <c r="N251" s="7">
-        <v>0</v>
-      </c>
-      <c r="O251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -11693,14 +10183,8 @@
       <c r="M252" s="7">
         <v>0</v>
       </c>
-      <c r="N252" s="7">
-        <v>0</v>
-      </c>
-      <c r="O252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -11740,14 +10224,8 @@
       <c r="M253" s="7">
         <v>0</v>
       </c>
-      <c r="N253" s="7">
-        <v>0</v>
-      </c>
-      <c r="O253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15">
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -11787,14 +10265,8 @@
       <c r="M254" s="7">
         <v>0</v>
       </c>
-      <c r="N254" s="7">
-        <v>0</v>
-      </c>
-      <c r="O254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15">
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -11834,14 +10306,8 @@
       <c r="M255" s="7">
         <v>0</v>
       </c>
-      <c r="N255" s="7">
-        <v>0</v>
-      </c>
-      <c r="O255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15">
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -11881,14 +10347,8 @@
       <c r="M256" s="7">
         <v>0</v>
       </c>
-      <c r="N256" s="7">
-        <v>0</v>
-      </c>
-      <c r="O256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -11928,14 +10388,8 @@
       <c r="M257" s="7">
         <v>0</v>
       </c>
-      <c r="N257" s="7">
-        <v>0</v>
-      </c>
-      <c r="O257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15">
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -11975,14 +10429,8 @@
       <c r="M258" s="7">
         <v>0</v>
       </c>
-      <c r="N258" s="7">
-        <v>0</v>
-      </c>
-      <c r="O258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15">
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -12022,14 +10470,8 @@
       <c r="M259" s="7">
         <v>0</v>
       </c>
-      <c r="N259" s="7">
-        <v>0</v>
-      </c>
-      <c r="O259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15">
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -12069,14 +10511,8 @@
       <c r="M260" s="7">
         <v>0</v>
       </c>
-      <c r="N260" s="7">
-        <v>0</v>
-      </c>
-      <c r="O260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15">
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -12116,14 +10552,8 @@
       <c r="M261" s="7">
         <v>0</v>
       </c>
-      <c r="N261" s="7">
-        <v>0</v>
-      </c>
-      <c r="O261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15">
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -12163,14 +10593,8 @@
       <c r="M262" s="7">
         <v>0</v>
       </c>
-      <c r="N262" s="7">
-        <v>0</v>
-      </c>
-      <c r="O262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15">
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -12210,14 +10634,8 @@
       <c r="M263" s="7">
         <v>0</v>
       </c>
-      <c r="N263" s="7">
-        <v>0</v>
-      </c>
-      <c r="O263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -12257,14 +10675,8 @@
       <c r="M264" s="7">
         <v>0</v>
       </c>
-      <c r="N264" s="7">
-        <v>0</v>
-      </c>
-      <c r="O264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -12304,14 +10716,8 @@
       <c r="M265" s="7">
         <v>0</v>
       </c>
-      <c r="N265" s="7">
-        <v>0</v>
-      </c>
-      <c r="O265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -12351,14 +10757,8 @@
       <c r="M266" s="7">
         <v>0</v>
       </c>
-      <c r="N266" s="7">
-        <v>0</v>
-      </c>
-      <c r="O266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15">
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -12398,14 +10798,8 @@
       <c r="M267" s="7">
         <v>0</v>
       </c>
-      <c r="N267" s="7">
-        <v>0</v>
-      </c>
-      <c r="O267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -12445,14 +10839,8 @@
       <c r="M268" s="7">
         <v>0</v>
       </c>
-      <c r="N268" s="7">
-        <v>0</v>
-      </c>
-      <c r="O268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15">
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -12492,14 +10880,8 @@
       <c r="M269" s="7">
         <v>0</v>
       </c>
-      <c r="N269" s="7">
-        <v>0</v>
-      </c>
-      <c r="O269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -12539,14 +10921,8 @@
       <c r="M270" s="7">
         <v>0</v>
       </c>
-      <c r="N270" s="7">
-        <v>0</v>
-      </c>
-      <c r="O270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15">
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -12586,14 +10962,8 @@
       <c r="M271" s="7">
         <v>0</v>
       </c>
-      <c r="N271" s="7">
-        <v>0</v>
-      </c>
-      <c r="O271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -12633,14 +11003,8 @@
       <c r="M272" s="7">
         <v>0</v>
       </c>
-      <c r="N272" s="7">
-        <v>0</v>
-      </c>
-      <c r="O272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15">
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -12680,14 +11044,8 @@
       <c r="M273" s="7">
         <v>0</v>
       </c>
-      <c r="N273" s="7">
-        <v>0</v>
-      </c>
-      <c r="O273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15">
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -12727,14 +11085,8 @@
       <c r="M274" s="7">
         <v>0</v>
       </c>
-      <c r="N274" s="7">
-        <v>0</v>
-      </c>
-      <c r="O274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -12774,14 +11126,8 @@
       <c r="M275" s="7">
         <v>0</v>
       </c>
-      <c r="N275" s="7">
-        <v>0</v>
-      </c>
-      <c r="O275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -12821,14 +11167,8 @@
       <c r="M276" s="7">
         <v>0</v>
       </c>
-      <c r="N276" s="7">
-        <v>0</v>
-      </c>
-      <c r="O276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15">
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -12868,14 +11208,8 @@
       <c r="M277" s="7">
         <v>0</v>
       </c>
-      <c r="N277" s="7">
-        <v>0</v>
-      </c>
-      <c r="O277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -12915,14 +11249,8 @@
       <c r="M278" s="7">
         <v>0</v>
       </c>
-      <c r="N278" s="7">
-        <v>0</v>
-      </c>
-      <c r="O278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -12962,14 +11290,8 @@
       <c r="M279" s="7">
         <v>0</v>
       </c>
-      <c r="N279" s="7">
-        <v>0</v>
-      </c>
-      <c r="O279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15">
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -13009,14 +11331,8 @@
       <c r="M280" s="7">
         <v>0</v>
       </c>
-      <c r="N280" s="7">
-        <v>0</v>
-      </c>
-      <c r="O280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15">
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -13056,14 +11372,8 @@
       <c r="M281" s="7">
         <v>0</v>
       </c>
-      <c r="N281" s="7">
-        <v>0</v>
-      </c>
-      <c r="O281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15">
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -13103,14 +11413,8 @@
       <c r="M282" s="7">
         <v>0</v>
       </c>
-      <c r="N282" s="7">
-        <v>0</v>
-      </c>
-      <c r="O282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -13150,14 +11454,8 @@
       <c r="M283" s="7">
         <v>0</v>
       </c>
-      <c r="N283" s="7">
-        <v>0</v>
-      </c>
-      <c r="O283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -13197,14 +11495,8 @@
       <c r="M284" s="7">
         <v>0</v>
       </c>
-      <c r="N284" s="7">
-        <v>0</v>
-      </c>
-      <c r="O284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -13244,14 +11536,8 @@
       <c r="M285" s="7">
         <v>0</v>
       </c>
-      <c r="N285" s="7">
-        <v>0</v>
-      </c>
-      <c r="O285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15">
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -13291,14 +11577,8 @@
       <c r="M286" s="7">
         <v>0</v>
       </c>
-      <c r="N286" s="7">
-        <v>0</v>
-      </c>
-      <c r="O286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15">
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -13338,14 +11618,8 @@
       <c r="M287" s="7">
         <v>0</v>
       </c>
-      <c r="N287" s="7">
-        <v>0</v>
-      </c>
-      <c r="O287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15">
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -13385,14 +11659,8 @@
       <c r="M288" s="7">
         <v>0</v>
       </c>
-      <c r="N288" s="7">
-        <v>0</v>
-      </c>
-      <c r="O288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15">
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -13432,14 +11700,8 @@
       <c r="M289" s="7">
         <v>0</v>
       </c>
-      <c r="N289" s="7">
-        <v>0</v>
-      </c>
-      <c r="O289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15">
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -13479,14 +11741,8 @@
       <c r="M290" s="7">
         <v>0</v>
       </c>
-      <c r="N290" s="7">
-        <v>0</v>
-      </c>
-      <c r="O290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -13526,14 +11782,8 @@
       <c r="M291" s="7">
         <v>0</v>
       </c>
-      <c r="N291" s="7">
-        <v>0</v>
-      </c>
-      <c r="O291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -13573,14 +11823,8 @@
       <c r="M292" s="7">
         <v>0</v>
       </c>
-      <c r="N292" s="7">
-        <v>0</v>
-      </c>
-      <c r="O292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15">
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -13620,14 +11864,8 @@
       <c r="M293" s="7">
         <v>0</v>
       </c>
-      <c r="N293" s="7">
-        <v>0</v>
-      </c>
-      <c r="O293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15">
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -13667,14 +11905,8 @@
       <c r="M294" s="7">
         <v>0</v>
       </c>
-      <c r="N294" s="7">
-        <v>0</v>
-      </c>
-      <c r="O294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15">
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -13714,14 +11946,8 @@
       <c r="M295" s="7">
         <v>0</v>
       </c>
-      <c r="N295" s="7">
-        <v>0</v>
-      </c>
-      <c r="O295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15">
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -13761,14 +11987,8 @@
       <c r="M296" s="7">
         <v>0</v>
       </c>
-      <c r="N296" s="7">
-        <v>0</v>
-      </c>
-      <c r="O296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -13808,14 +12028,8 @@
       <c r="M297" s="7">
         <v>0</v>
       </c>
-      <c r="N297" s="7">
-        <v>0</v>
-      </c>
-      <c r="O297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -13829,7 +12043,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:13">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -13843,7 +12057,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:13">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -13856,7 +12070,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:13">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -13869,14 +12083,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:13">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:13">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -13888,7 +12102,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:13">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
